--- a/biology/Botanique/Cocconeis/Cocconeis.xlsx
+++ b/biology/Botanique/Cocconeis/Cocconeis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cocconeis est un genre de diatomées. L'espèce type est Cocconeis scutellum.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cocconeis acutata – Cocconeis algida – Cocconeis amerieuglypta – Cocconeis arenicola – Cocconeis barleyi – Cocconeis britannica – Cocconeis carinata – Cocconeis cascadensis – Cocconeis caulerpacola – Cocconeis churalis – Cocconeis clandestina – Cocconeis coreana – Cocconeis coronatoides – Cocconeis costata – Cocconeis crozetensis – Cocconeis debesii – Cocconeis dirupta – Cocconeis disculus – Cocconeis elegans – Cocconeis exigua – Cocconeis fluminensis – Cocconeis frustrationis – Cocconeis gautierii – Cocconeis gibberula – Cocconeis grata – Cocconeis gregoryi – Cocconeis heteroidea – Cocconeis intermedia – Cocconeis kurakakea – Cocconeis lyra – Cocconeis magnoareolata – Cocconeis maharashtrensis – Cocconeis materoxanae – Cocconeis maxima – Cocconeis meisteri – Cocconeis molesta – Cocconeis nagumoi – Cocconeis nanoburyatica – Cocconeis napukensis – Cocconeis neuquina – Cocconeis nosybetiana – Cocconeis notata – Cocconeis ornata – Cocconeis pediculus – Cocconeis pellucida – Cocconeis pelta – Cocconeis pinnata – Cocconeis placentula – Cocconeis portei – Cocconeis pseudomarginata – Cocconeis pseudornata – Cocconeis rouxii – Cocconeis sawensis – Cocconeis scutellum – Cocconeis sijunghoensis – Cocconeis singularis – Cocconeis soukupi – Cocconeis speciosa – Cocconeis spina-christi – Cocconeis subantarctica – Cocconeis subzanskiensis – Cocconeis suzukii – Cocconeis thalassiana – Cocconeis theinemannii – Cocconeis thwaitesii – Cocconeis titicacaensis – Cocconeis tortilis – Cocconeis tuamotuana – Cocconeis utermohlii – Cocconeis vrangoensis
 </t>
